--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,14 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsikarwar\eclipse-workspace\CyberToDCTAutomation\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11475" windowHeight="2370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>testname</t>
   </si>
@@ -37,35 +42,224 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>testdescription</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>insuredname</t>
+  </si>
+  <si>
+    <t>insuredaddress</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Crum &amp; Forster Specialty Insurance Company</t>
+  </si>
+  <si>
+    <t>test0706</t>
+  </si>
+  <si>
+    <t>23, St taken</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>yearsofpriorcoverage</t>
+  </si>
+  <si>
+    <t>noofclaims</t>
+  </si>
+  <si>
+    <t>totallossincurred</t>
+  </si>
+  <si>
+    <t>lossratio</t>
+  </si>
+  <si>
+    <t>61% to 100%</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>DCTQuickQuoteFlowTest</t>
+  </si>
+  <si>
+    <t>To check whether user is able to create quote using Quick Quote</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>insuredcontactname</t>
+  </si>
+  <si>
+    <t>insuredcontactphone</t>
+  </si>
+  <si>
+    <t>insuredcontactemail</t>
+  </si>
+  <si>
+    <t>ratablerevenue</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>underwriter</t>
+  </si>
+  <si>
+    <t>effectivedate</t>
+  </si>
+  <si>
+    <t>continutitydate</t>
+  </si>
+  <si>
+    <t>naicscode</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>nyftz</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>bhuvanesh</t>
+  </si>
+  <si>
+    <t>test@email.com</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>Cheryl Shema</t>
+  </si>
+  <si>
+    <t>6/14/2021</t>
+  </si>
+  <si>
+    <t>378873878</t>
+  </si>
+  <si>
+    <t>accounttype</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>14804</t>
+  </si>
+  <si>
+    <t>claimhistorycommants</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>ExpandedFirstParty</t>
+  </si>
+  <si>
+    <t>MultimediaCoverage</t>
+  </si>
+  <si>
+    <t>Ecrime</t>
+  </si>
+  <si>
+    <t>WaitingPeriod</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>To check whether this test is executed</t>
-  </si>
-  <si>
-    <t>To check whether the user can successfully login and logout</t>
-  </si>
-  <si>
-    <t>loginLogoutTest</t>
-  </si>
-  <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t>testdescription</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>amountpaid</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>lossdate</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>YearEstablished</t>
+  </si>
+  <si>
+    <t>produceremail</t>
+  </si>
+  <si>
+    <t>aggregatelimitofliability</t>
+  </si>
+  <si>
+    <t>ecrimelosssubmitofliability</t>
+  </si>
+  <si>
+    <t>dependentbusinesssubmitofliability</t>
+  </si>
+  <si>
+    <t>guidelinedeductible</t>
+  </si>
+  <si>
+    <t>selecteddeductible</t>
+  </si>
+  <si>
+    <t>quoteprmium</t>
+  </si>
+  <si>
+    <t>DCTQuickQuoteFlowTest1</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +267,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,15 +313,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,18 +627,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -402,41 +654,494 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="21.42578125" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>testname</t>
   </si>
@@ -183,12 +183,6 @@
     <t>guidelinedeductible</t>
   </si>
   <si>
-    <t>selecteddeductible</t>
-  </si>
-  <si>
-    <t>quoteprmium</t>
-  </si>
-  <si>
     <t>priorclaimhistorystatus</t>
   </si>
   <si>
@@ -207,12 +201,6 @@
     <t>$500,000</t>
   </si>
   <si>
-    <t>finalpremium</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -319,6 +307,93 @@
   </si>
   <si>
     <t>test0716</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>FinancialCondition_value</t>
+  </si>
+  <si>
+    <t>FinancialCondition_comment</t>
+  </si>
+  <si>
+    <t>MaturityOfBusiness_comment</t>
+  </si>
+  <si>
+    <t>MaturityOfBusiness_value</t>
+  </si>
+  <si>
+    <t>VolumeOfInformationStored_value</t>
+  </si>
+  <si>
+    <t>VolumeOfInformationStored_comment</t>
+  </si>
+  <si>
+    <t>TerritoryofOperations_comment</t>
+  </si>
+  <si>
+    <t>TerritoryofOperations_value</t>
+  </si>
+  <si>
+    <t>Natureofcontent_value</t>
+  </si>
+  <si>
+    <t>Natureofcontent_comment</t>
+  </si>
+  <si>
+    <t>NatureOfPaymentCardProcessingExposure_value</t>
+  </si>
+  <si>
+    <t>NatureOfPaymentCardProcessingExposure_comment</t>
+  </si>
+  <si>
+    <t>NatureOfReputationalRiskExposure_value</t>
+  </si>
+  <si>
+    <t>NatureOfReputationalRiskExposure_comment</t>
+  </si>
+  <si>
+    <t>PrivacyandSecurityControls_value</t>
+  </si>
+  <si>
+    <t>PrivacyandSecurityControls_comment</t>
+  </si>
+  <si>
+    <t>ParticipationInRiskControlProgram_value</t>
+  </si>
+  <si>
+    <t>ParticipationInRiskControlProgram_comment</t>
+  </si>
+  <si>
+    <t>ScheduleRatingFactor</t>
+  </si>
+  <si>
+    <t>QualityOfManagement_value</t>
+  </si>
+  <si>
+    <t>QualityOfManagement_comment</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>limitanddeductibleoption</t>
+  </si>
+  <si>
+    <t>ransomwarecoinsurance</t>
+  </si>
+  <si>
+    <t>ransomwaresublimitliability</t>
+  </si>
+  <si>
+    <t>standardpremium</t>
+  </si>
+  <si>
+    <t>advancedriskcontrolcomment</t>
+  </si>
+  <si>
+    <t>advanced risk control test</t>
   </si>
 </sst>
 </file>
@@ -371,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,12 +469,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -410,6 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -727,10 +817,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>41</v>
@@ -744,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:CA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="CA2" sqref="CA2:CA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +872,15 @@
     <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="54" width="21.42578125" customWidth="1"/>
+    <col min="34" max="46" width="21.42578125" customWidth="1"/>
+    <col min="47" max="47" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.28515625" customWidth="1"/>
+    <col min="56" max="56" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,16 +927,16 @@
         <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>47</v>
@@ -862,19 +957,19 @@
         <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>43</v>
@@ -895,61 +990,130 @@
         <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AU1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>60</v>
+      <c r="BZ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -957,13 +1121,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -981,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>31</v>
@@ -990,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>32</v>
@@ -1002,13 +1166,13 @@
         <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>35</v>
@@ -1020,28 +1184,28 @@
         <v>9</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>14</v>
@@ -1050,16 +1214,16 @@
         <v>40</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AI2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>2</v>
@@ -1077,57 +1241,132 @@
         <v>41</v>
       </c>
       <c r="AQ2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AS2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -1145,7 +1384,7 @@
         <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>31</v>
@@ -1154,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>32</v>
@@ -1166,13 +1405,13 @@
         <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>35</v>
@@ -1184,28 +1423,28 @@
         <v>9</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="AD3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>14</v>
@@ -1214,16 +1453,16 @@
         <v>40</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>2</v>
@@ -1241,40 +1480,115 @@
         <v>41</v>
       </c>
       <c r="AQ3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AS3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA3" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="483" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="403" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="PriorClaim" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
   <si>
     <t>testname</t>
   </si>
@@ -72,9 +73,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>DCTQuickQuoteFlowTest</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -249,18 +247,6 @@
     <t>7/7/2021</t>
   </si>
   <si>
-    <t>DCTQuickQuoteFlowTest1</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>To check whether user is able to enter values in General and Prior Claim History Page on Chrome browser</t>
-  </si>
-  <si>
-    <t>To check whether user is able to enter values in General and Prior Claim History Page on FireFox browser</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -394,6 +380,63 @@
   </si>
   <si>
     <t>advanced risk control test</t>
+  </si>
+  <si>
+    <t>testing sddsjhdj</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Quick Quote Flow when selecting Effective date as TBD</t>
+  </si>
+  <si>
+    <t>test0804</t>
+  </si>
+  <si>
+    <t>effectivedateTBD</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest1</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest2</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest3</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest4</t>
+  </si>
+  <si>
+    <t>Quick Quote Flow when policy term as 1 year</t>
+  </si>
+  <si>
+    <t>Quick Quote Flow when policy term as 6 months</t>
+  </si>
+  <si>
+    <t>When State is NJ and company is North River then coverger pricing then NJ PLIGA field will be displayed</t>
+  </si>
+  <si>
+    <t>policyterm</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>The North River Insurance Company</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest5</t>
+  </si>
+  <si>
+    <t>Quick Quote Flow when user add two Prior Claim under prior claim history tab</t>
   </si>
 </sst>
 </file>
@@ -446,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -480,12 +523,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -496,10 +552,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,25 +859,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>76</v>
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>77</v>
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -834,15 +921,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA3"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2:CA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -861,734 +948,1489 @@
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="28" width="5.42578125" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="46" width="21.42578125" customWidth="1"/>
-    <col min="47" max="47" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.28515625" customWidth="1"/>
-    <col min="56" max="56" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+    <col min="29" max="30" width="5.42578125" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="21.42578125" customWidth="1"/>
+    <col min="49" max="49" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.28515625" customWidth="1"/>
+    <col min="58" max="58" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BW1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA1" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="8" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AQ2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="BT2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BW2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="CA2" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="X3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="AM3" s="7" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AN3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AQ3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AU3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AH4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AR4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC4" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC5" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BA3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BJ3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BQ3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="BR3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS3" s="7" t="s">
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BU3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BV3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BW3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BZ3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="CA3" s="11" t="s">
-        <v>122</v>
+      <c r="BV6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC6" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1597,8 +2439,116 @@
     <hyperlink ref="T2" r:id="rId2"/>
     <hyperlink ref="L3" r:id="rId3"/>
     <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="T4" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="T5" r:id="rId8"/>
+    <hyperlink ref="L6" r:id="rId9"/>
+    <hyperlink ref="T6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="403" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="403"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1213,7 +1213,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
@@ -2193,7 +2193,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="403"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="4140" tabRatio="403" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
@@ -1703,7 +1703,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -1948,7 +1948,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -2193,7 +2193,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="140">
   <si>
     <t>testname</t>
   </si>
@@ -437,6 +437,15 @@
   </si>
   <si>
     <t>Quick Quote Flow when user add two Prior Claim under prior claim history tab</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>QuickQuoteFlowTest6</t>
+  </si>
+  <si>
+    <t>When State is NY and company is North River then NYFTZ is autochecked</t>
   </si>
 </sst>
 </file>
@@ -835,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +875,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -877,7 +886,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -888,7 +897,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -899,7 +908,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -910,6 +919,17 @@
         <v>136</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -921,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,15 +1228,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>44</v>
@@ -1453,12 +1473,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
@@ -1698,12 +1718,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -1943,12 +1963,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -2193,7 +2213,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
@@ -2430,6 +2450,251 @@
         <v>53</v>
       </c>
       <c r="CC6" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC7" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2445,9 +2710,11 @@
     <hyperlink ref="T5" r:id="rId8"/>
     <hyperlink ref="L6" r:id="rId9"/>
     <hyperlink ref="T6" r:id="rId10"/>
+    <hyperlink ref="L7" r:id="rId11"/>
+    <hyperlink ref="T7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
